--- a/example/999_模板人物口上文件.xlsx
+++ b/example/999_模板人物口上文件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\era\erArk\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A36ABE-8BB2-43E0-A2D4-02E19EFA46F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E7C513-9E6F-4075-B964-A5534C163F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{7D66783C-13D9-4736-A34F-CD9367DAF41D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D66783C-13D9-4736-A34F-CD9367DAF41D}"/>
   </bookViews>
   <sheets>
     <sheet name="999_模板人物口上文件" sheetId="2" r:id="rId1"/>
@@ -161,258 +161,171 @@
     <t>11</t>
   </si>
   <si>
-    <t>sys_1|sys_5</t>
-  </si>
-  <si>
     <t>干员{Name}和另一名干员{TargetName}聊天的口上1</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>sys_0|high_5</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，触发权重+5</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>sys_0|time_day</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，时间：白天</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>sys_0|time_night</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，时间：晚上</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>sys_0|eat_time</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，时间：三餐饭点</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>sys_0|place_10</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，该地点仅有玩家和该角色</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>sys_0|place_11</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，该地点里有除了玩家和该角色之外的人</t>
   </si>
   <si>
-    <t>sys_0|in_dr_off</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，地点：博士办公室</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>sys_0|in_din</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，地点：食堂</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>sys_0|in_training_room</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，地点：训练室（包括木桩房和射击房）</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>sys_0|in_clinic</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，地点：门诊室（含急诊室）</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>sys_0|t_is_follow</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方当前正跟随玩家</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>sys_0|t_is_assistant</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方是当前的助理干员</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>sys_0|hp_low</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，博士体力低于30%</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>sys_0|t_hp_low</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方体力低于30%</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>sys_0|good_mood</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方心情愉快</t>
   </si>
   <si>
     <t>46</t>
   </si>
   <si>
-    <t>sys_0|bad_or_angry_mood</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方心情不好或愤怒</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>sys_0|t_sleep_ge_75</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方困倦条≥75%，部分指令受限</t>
   </si>
   <si>
     <t>48</t>
   </si>
   <si>
-    <t>sys_0|t_sleep_ge_90</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方困倦条≥90%，必须回去睡觉</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>sys_0|t_urinate_ge_80</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方尿意条≥80%，需要排尿</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>sys_0|t_hunger_ge_80</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方饥饿值≥80%，需要吃饭</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>sys_0|t_intimacy_ge_3</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方的亲密&gt;=3</t>
   </si>
   <si>
     <t>62</t>
   </si>
   <si>
-    <t>sys_0|t_desire_ge_5</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方的欲望&gt;=5</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
-    <t>sys_0|talk_le_1</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，博士的话术技能&lt;=1</t>
   </si>
   <si>
     <t>64</t>
   </si>
   <si>
-    <t>sys_0|talk_ge_5</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，博士的话术技能&gt;=5</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>sys_0|t_talk_le_1</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方的话术技能&lt;=1</t>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
-    <t>sys_0|t_talk_ge_5</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方的话术技能&gt;=5</t>
   </si>
   <si>
     <t>71</t>
   </si>
   <si>
-    <t>sys_0|not_fall</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方无陷落素质</t>
   </si>
   <si>
     <t>72</t>
   </si>
   <si>
-    <t>sys_0|love_1</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方的陷落状态为思慕</t>
   </si>
   <si>
@@ -422,27 +335,18 @@
     <t>73</t>
   </si>
   <si>
-    <t>sys_0|love_le_2</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方的陷落状态为爱情系&lt;=恋慕(2级)</t>
   </si>
   <si>
     <t>74</t>
   </si>
   <si>
-    <t>sys_0|love_ge_3</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方的陷落状态为爱情系&gt;=恋人(3级)</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
-    <t>sys_0|obey_1</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方的陷落状态为屈从</t>
   </si>
   <si>
@@ -452,72 +356,48 @@
     <t>76</t>
   </si>
   <si>
-    <t>sys_0|obey_le_2</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方的陷落状态为隶属系&lt;=驯服(2级)</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>sys_0|obey_ge_3</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方的陷落状态为隶属系&gt;=妄信(3级)</t>
   </si>
   <si>
     <t>81</t>
   </si>
   <si>
-    <t>sys_0|kiss_0</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方已没有初吻</t>
   </si>
   <si>
     <t>82</t>
   </si>
   <si>
-    <t>sys_0|kiss_1</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方还有初吻</t>
   </si>
   <si>
     <t>83</t>
   </si>
   <si>
-    <t>sys_0|virgin_0</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方非处女</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
-    <t>sys_0|virgin_1</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方还是处女</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
-    <t>sys_0|a_virgin_0</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方非A处女</t>
   </si>
   <si>
     <t>86</t>
   </si>
   <si>
-    <t>sys_0|a_virgin_1</t>
-  </si>
-  <si>
     <t>博士主动和干员{TargetName}聊天的口上，对方还是A处女</t>
   </si>
   <si>
@@ -1686,6 +1566,126 @@
   </si>
   <si>
     <t>干员{TargetName}失去A处女的口上</t>
+  </si>
+  <si>
+    <t>sys_1&amp;sys_5</t>
+  </si>
+  <si>
+    <t>sys_0&amp;high_5</t>
+  </si>
+  <si>
+    <t>sys_0&amp;time_day</t>
+  </si>
+  <si>
+    <t>sys_0&amp;time_night</t>
+  </si>
+  <si>
+    <t>sys_0&amp;eat_time</t>
+  </si>
+  <si>
+    <t>sys_0&amp;place_10</t>
+  </si>
+  <si>
+    <t>sys_0&amp;place_11</t>
+  </si>
+  <si>
+    <t>sys_0&amp;in_dr_off</t>
+  </si>
+  <si>
+    <t>sys_0&amp;in_din</t>
+  </si>
+  <si>
+    <t>sys_0&amp;in_training_room</t>
+  </si>
+  <si>
+    <t>sys_0&amp;in_clinic</t>
+  </si>
+  <si>
+    <t>sys_0&amp;t_is_follow</t>
+  </si>
+  <si>
+    <t>sys_0&amp;t_is_assistant</t>
+  </si>
+  <si>
+    <t>sys_0&amp;hp_low</t>
+  </si>
+  <si>
+    <t>sys_0&amp;t_hp_low</t>
+  </si>
+  <si>
+    <t>sys_0&amp;good_mood</t>
+  </si>
+  <si>
+    <t>sys_0&amp;bad_or_angry_mood</t>
+  </si>
+  <si>
+    <t>sys_0&amp;t_sleep_ge_75</t>
+  </si>
+  <si>
+    <t>sys_0&amp;t_sleep_ge_90</t>
+  </si>
+  <si>
+    <t>sys_0&amp;t_urinate_ge_80</t>
+  </si>
+  <si>
+    <t>sys_0&amp;t_hunger_ge_80</t>
+  </si>
+  <si>
+    <t>sys_0&amp;t_intimacy_ge_3</t>
+  </si>
+  <si>
+    <t>sys_0&amp;t_desire_ge_5</t>
+  </si>
+  <si>
+    <t>sys_0&amp;talk_le_1</t>
+  </si>
+  <si>
+    <t>sys_0&amp;talk_ge_5</t>
+  </si>
+  <si>
+    <t>sys_0&amp;t_talk_le_1</t>
+  </si>
+  <si>
+    <t>sys_0&amp;t_talk_ge_5</t>
+  </si>
+  <si>
+    <t>sys_0&amp;not_fall</t>
+  </si>
+  <si>
+    <t>sys_0&amp;love_1</t>
+  </si>
+  <si>
+    <t>sys_0&amp;love_le_2</t>
+  </si>
+  <si>
+    <t>sys_0&amp;love_ge_3</t>
+  </si>
+  <si>
+    <t>sys_0&amp;obey_1</t>
+  </si>
+  <si>
+    <t>sys_0&amp;obey_le_2</t>
+  </si>
+  <si>
+    <t>sys_0&amp;obey_ge_3</t>
+  </si>
+  <si>
+    <t>sys_0&amp;kiss_0</t>
+  </si>
+  <si>
+    <t>sys_0&amp;kiss_1</t>
+  </si>
+  <si>
+    <t>sys_0&amp;virgin_0</t>
+  </si>
+  <si>
+    <t>sys_0&amp;virgin_1</t>
+  </si>
+  <si>
+    <t>sys_0&amp;a_virgin_0</t>
+  </si>
+  <si>
+    <t>sys_0&amp;a_virgin_1</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2104,7 @@
   <dimension ref="A1:F236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2408,10 +2408,10 @@
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -2448,10 +2448,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
@@ -2468,10 +2468,10 @@
         <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>509</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
@@ -2488,10 +2488,10 @@
         <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>510</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
@@ -2508,10 +2508,10 @@
         <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>511</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -2548,10 +2548,10 @@
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>512</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -2568,10 +2568,10 @@
         <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>513</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
@@ -2588,10 +2588,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>514</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
@@ -2608,10 +2608,10 @@
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>515</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
@@ -2628,10 +2628,10 @@
         <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>516</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
@@ -2648,10 +2648,10 @@
         <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>67</v>
+        <v>517</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>22</v>
@@ -2688,10 +2688,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>518</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>22</v>
@@ -2708,10 +2708,10 @@
         <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>519</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>22</v>
@@ -2728,10 +2728,10 @@
         <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>76</v>
+        <v>520</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>22</v>
@@ -2748,10 +2748,10 @@
         <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>22</v>
@@ -2768,10 +2768,10 @@
         <v>23</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>82</v>
+        <v>522</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>22</v>
@@ -2788,10 +2788,10 @@
         <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>85</v>
+        <v>523</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>11</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
@@ -2808,10 +2808,10 @@
         <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>88</v>
+        <v>524</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>11</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>22</v>
@@ -2828,10 +2828,10 @@
         <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>91</v>
+        <v>525</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>11</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>22</v>
@@ -2848,10 +2848,10 @@
         <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>94</v>
+        <v>526</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>11</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>22</v>
@@ -2868,10 +2868,10 @@
         <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>97</v>
+        <v>527</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>11</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>22</v>
@@ -2908,10 +2908,10 @@
         <v>23</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>528</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>11</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>22</v>
@@ -2928,10 +2928,10 @@
         <v>23</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>103</v>
+        <v>529</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>11</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>22</v>
@@ -2948,10 +2948,10 @@
         <v>23</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>106</v>
+        <v>530</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>11</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>22</v>
@@ -2968,10 +2968,10 @@
         <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>109</v>
+        <v>531</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>11</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>22</v>
@@ -2988,10 +2988,10 @@
         <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>112</v>
+        <v>532</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>11</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>22</v>
@@ -3008,10 +3008,10 @@
         <v>23</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>115</v>
+        <v>533</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>11</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>22</v>
@@ -3048,10 +3048,10 @@
         <v>23</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>118</v>
+        <v>534</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>11</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>22</v>
@@ -3068,18 +3068,18 @@
         <v>23</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>121</v>
+        <v>535</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>22</v>
@@ -3088,10 +3088,10 @@
         <v>23</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>125</v>
+        <v>536</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>22</v>
@@ -3108,10 +3108,10 @@
         <v>23</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>128</v>
+        <v>537</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>11</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>22</v>
@@ -3128,18 +3128,18 @@
         <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>131</v>
+        <v>538</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>22</v>
@@ -3148,10 +3148,10 @@
         <v>23</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>135</v>
+        <v>539</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>11</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>22</v>
@@ -3168,10 +3168,10 @@
         <v>23</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>138</v>
+        <v>540</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>11</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>22</v>
@@ -3208,10 +3208,10 @@
         <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>141</v>
+        <v>541</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>11</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>22</v>
@@ -3228,10 +3228,10 @@
         <v>23</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>144</v>
+        <v>542</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>11</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>22</v>
@@ -3248,10 +3248,10 @@
         <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>147</v>
+        <v>543</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>11</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>22</v>
@@ -3268,10 +3268,10 @@
         <v>23</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>150</v>
+        <v>544</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>11</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>22</v>
@@ -3288,10 +3288,10 @@
         <v>23</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>153</v>
+        <v>545</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>11</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>22</v>
@@ -3308,10 +3308,10 @@
         <v>23</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>156</v>
+        <v>546</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>11</v>
@@ -3362,7 +3362,7 @@
         <v>22</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>23</v>
@@ -3371,7 +3371,7 @@
         <v>24</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>11</v>
@@ -3379,10 +3379,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>23</v>
@@ -3391,7 +3391,7 @@
         <v>24</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>11</v>
@@ -3399,10 +3399,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>23</v>
@@ -3411,7 +3411,7 @@
         <v>24</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>11</v>
@@ -3419,10 +3419,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>23</v>
@@ -3431,7 +3431,7 @@
         <v>24</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>11</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>23</v>
@@ -3451,7 +3451,7 @@
         <v>24</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>11</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>23</v>
@@ -3471,7 +3471,7 @@
         <v>24</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>11</v>
@@ -3479,10 +3479,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>23</v>
@@ -3491,7 +3491,7 @@
         <v>24</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>11</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>23</v>
@@ -3511,7 +3511,7 @@
         <v>24</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>11</v>
@@ -3539,10 +3539,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>23</v>
@@ -3551,7 +3551,7 @@
         <v>24</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>11</v>
@@ -3559,10 +3559,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>23</v>
@@ -3571,7 +3571,7 @@
         <v>24</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>11</v>
@@ -3599,10 +3599,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>23</v>
@@ -3611,7 +3611,7 @@
         <v>24</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>11</v>
@@ -3639,10 +3639,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>23</v>
@@ -3651,7 +3651,7 @@
         <v>24</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>11</v>
@@ -3659,10 +3659,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>23</v>
@@ -3671,7 +3671,7 @@
         <v>24</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>11</v>
@@ -3679,10 +3679,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>23</v>
@@ -3691,7 +3691,7 @@
         <v>24</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>11</v>
@@ -3699,10 +3699,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>23</v>
@@ -3711,7 +3711,7 @@
         <v>24</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>11</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>23</v>
@@ -3731,7 +3731,7 @@
         <v>24</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>11</v>
@@ -3739,10 +3739,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>23</v>
@@ -3751,7 +3751,7 @@
         <v>24</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>11</v>
@@ -3759,10 +3759,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>23</v>
@@ -3771,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>11</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>23</v>
@@ -3791,7 +3791,7 @@
         <v>24</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>11</v>
@@ -3799,10 +3799,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>23</v>
@@ -3811,7 +3811,7 @@
         <v>24</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>11</v>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>23</v>
@@ -3831,7 +3831,7 @@
         <v>24</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>11</v>
@@ -3839,10 +3839,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>23</v>
@@ -3851,7 +3851,7 @@
         <v>24</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>11</v>
@@ -3859,10 +3859,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>23</v>
@@ -3871,7 +3871,7 @@
         <v>24</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>11</v>
@@ -3879,10 +3879,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>23</v>
@@ -3891,7 +3891,7 @@
         <v>24</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>11</v>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>23</v>
@@ -3911,7 +3911,7 @@
         <v>24</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>11</v>
@@ -3919,10 +3919,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>23</v>
@@ -3931,7 +3931,7 @@
         <v>24</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>11</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>23</v>
@@ -3951,7 +3951,7 @@
         <v>24</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>11</v>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>23</v>
@@ -3971,7 +3971,7 @@
         <v>24</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>11</v>
@@ -3979,10 +3979,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>23</v>
@@ -3991,7 +3991,7 @@
         <v>24</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>11</v>
@@ -3999,10 +3999,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>23</v>
@@ -4011,7 +4011,7 @@
         <v>24</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>11</v>
@@ -4019,10 +4019,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>23</v>
@@ -4031,7 +4031,7 @@
         <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>11</v>
@@ -4039,10 +4039,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>23</v>
@@ -4051,7 +4051,7 @@
         <v>24</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>11</v>
@@ -4059,10 +4059,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>23</v>
@@ -4071,7 +4071,7 @@
         <v>24</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>11</v>
@@ -4079,10 +4079,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>23</v>
@@ -4091,7 +4091,7 @@
         <v>24</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>11</v>
@@ -4099,10 +4099,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>23</v>
@@ -4111,7 +4111,7 @@
         <v>24</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>11</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>23</v>
@@ -4131,7 +4131,7 @@
         <v>24</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>11</v>
@@ -4139,10 +4139,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>23</v>
@@ -4151,7 +4151,7 @@
         <v>24</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>11</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>23</v>
@@ -4171,7 +4171,7 @@
         <v>24</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>11</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>23</v>
@@ -4191,7 +4191,7 @@
         <v>24</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>11</v>
@@ -4199,10 +4199,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>23</v>
@@ -4211,7 +4211,7 @@
         <v>24</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>11</v>
@@ -4239,10 +4239,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>23</v>
@@ -4251,7 +4251,7 @@
         <v>24</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>11</v>
@@ -4259,10 +4259,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>23</v>
@@ -4271,7 +4271,7 @@
         <v>24</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>11</v>
@@ -4279,10 +4279,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>23</v>
@@ -4291,7 +4291,7 @@
         <v>24</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>11</v>
@@ -4299,10 +4299,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>23</v>
@@ -4311,7 +4311,7 @@
         <v>24</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>11</v>
@@ -4319,10 +4319,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>23</v>
@@ -4331,7 +4331,7 @@
         <v>24</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>11</v>
@@ -4339,10 +4339,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>23</v>
@@ -4351,7 +4351,7 @@
         <v>24</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>11</v>
@@ -4359,10 +4359,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>23</v>
@@ -4371,7 +4371,7 @@
         <v>24</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>11</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>23</v>
@@ -4391,7 +4391,7 @@
         <v>24</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>11</v>
@@ -4399,10 +4399,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>23</v>
@@ -4411,7 +4411,7 @@
         <v>24</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>11</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>23</v>
@@ -4431,7 +4431,7 @@
         <v>24</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>11</v>
@@ -4439,10 +4439,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>23</v>
@@ -4451,7 +4451,7 @@
         <v>24</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>11</v>
@@ -4459,10 +4459,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>23</v>
@@ -4471,7 +4471,7 @@
         <v>24</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>11</v>
@@ -4479,10 +4479,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>23</v>
@@ -4491,7 +4491,7 @@
         <v>24</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>11</v>
@@ -4499,10 +4499,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>23</v>
@@ -4511,7 +4511,7 @@
         <v>24</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>11</v>
@@ -4519,10 +4519,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>23</v>
@@ -4531,7 +4531,7 @@
         <v>24</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>11</v>
@@ -4539,10 +4539,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>23</v>
@@ -4551,7 +4551,7 @@
         <v>24</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>11</v>
@@ -4559,10 +4559,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>23</v>
@@ -4571,7 +4571,7 @@
         <v>24</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>11</v>
@@ -4579,10 +4579,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>23</v>
@@ -4591,7 +4591,7 @@
         <v>24</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>11</v>
@@ -4599,10 +4599,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>23</v>
@@ -4611,7 +4611,7 @@
         <v>24</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>11</v>
@@ -4619,10 +4619,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>23</v>
@@ -4631,7 +4631,7 @@
         <v>24</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>11</v>
@@ -4639,10 +4639,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>23</v>
@@ -4651,7 +4651,7 @@
         <v>24</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>11</v>
@@ -4659,10 +4659,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>23</v>
@@ -4671,7 +4671,7 @@
         <v>24</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>11</v>
@@ -4679,10 +4679,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>23</v>
@@ -4691,7 +4691,7 @@
         <v>24</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>11</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>23</v>
@@ -4711,7 +4711,7 @@
         <v>24</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>11</v>
@@ -4719,10 +4719,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>23</v>
@@ -4731,7 +4731,7 @@
         <v>24</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>11</v>
@@ -4739,10 +4739,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>23</v>
@@ -4751,7 +4751,7 @@
         <v>24</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>11</v>
@@ -4759,10 +4759,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>23</v>
@@ -4771,7 +4771,7 @@
         <v>24</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>11</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>23</v>
@@ -4791,7 +4791,7 @@
         <v>24</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>11</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>23</v>
@@ -4831,7 +4831,7 @@
         <v>24</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>11</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>23</v>
@@ -4851,7 +4851,7 @@
         <v>24</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>11</v>
@@ -4859,10 +4859,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>23</v>
@@ -4871,7 +4871,7 @@
         <v>24</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>11</v>
@@ -4879,10 +4879,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>23</v>
@@ -4891,7 +4891,7 @@
         <v>24</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>11</v>
@@ -4899,10 +4899,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>23</v>
@@ -4911,7 +4911,7 @@
         <v>24</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>11</v>
@@ -4919,10 +4919,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>23</v>
@@ -4931,7 +4931,7 @@
         <v>24</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>11</v>
@@ -4939,10 +4939,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>23</v>
@@ -4951,7 +4951,7 @@
         <v>24</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>11</v>
@@ -4959,10 +4959,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>23</v>
@@ -4971,7 +4971,7 @@
         <v>24</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>11</v>
@@ -4999,10 +4999,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>23</v>
@@ -5011,7 +5011,7 @@
         <v>24</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>11</v>
@@ -5019,10 +5019,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>23</v>
@@ -5031,7 +5031,7 @@
         <v>24</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>11</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>23</v>
@@ -5051,7 +5051,7 @@
         <v>24</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>11</v>
@@ -5059,10 +5059,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>23</v>
@@ -5071,7 +5071,7 @@
         <v>24</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>11</v>
@@ -5079,10 +5079,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>23</v>
@@ -5091,7 +5091,7 @@
         <v>24</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>11</v>
@@ -5099,10 +5099,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>23</v>
@@ -5111,7 +5111,7 @@
         <v>24</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>11</v>
@@ -5119,10 +5119,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>23</v>
@@ -5131,7 +5131,7 @@
         <v>24</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>11</v>
@@ -5139,10 +5139,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>23</v>
@@ -5151,7 +5151,7 @@
         <v>24</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>11</v>
@@ -5159,10 +5159,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>23</v>
@@ -5171,7 +5171,7 @@
         <v>24</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>11</v>
@@ -5179,10 +5179,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>23</v>
@@ -5191,7 +5191,7 @@
         <v>24</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>11</v>
@@ -5199,10 +5199,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>23</v>
@@ -5211,7 +5211,7 @@
         <v>24</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>11</v>
@@ -5219,10 +5219,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>23</v>
@@ -5231,7 +5231,7 @@
         <v>24</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>11</v>
@@ -5239,10 +5239,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>23</v>
@@ -5251,7 +5251,7 @@
         <v>24</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>11</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>23</v>
@@ -5271,7 +5271,7 @@
         <v>24</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>11</v>
@@ -5279,10 +5279,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>23</v>
@@ -5291,7 +5291,7 @@
         <v>24</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>11</v>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>23</v>
@@ -5311,7 +5311,7 @@
         <v>24</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>11</v>
@@ -5319,10 +5319,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>23</v>
@@ -5331,7 +5331,7 @@
         <v>24</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>11</v>
@@ -5339,10 +5339,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>23</v>
@@ -5351,7 +5351,7 @@
         <v>24</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>11</v>
@@ -5359,10 +5359,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>23</v>
@@ -5371,7 +5371,7 @@
         <v>24</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>11</v>
@@ -5399,10 +5399,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>23</v>
@@ -5411,7 +5411,7 @@
         <v>24</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>11</v>
@@ -5419,10 +5419,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>23</v>
@@ -5431,7 +5431,7 @@
         <v>24</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>11</v>
@@ -5439,10 +5439,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>23</v>
@@ -5451,7 +5451,7 @@
         <v>24</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>11</v>
@@ -5459,10 +5459,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>23</v>
@@ -5471,7 +5471,7 @@
         <v>24</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>11</v>
@@ -5479,10 +5479,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>23</v>
@@ -5491,7 +5491,7 @@
         <v>24</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>11</v>
@@ -5499,10 +5499,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>23</v>
@@ -5511,7 +5511,7 @@
         <v>24</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>11</v>
@@ -5519,10 +5519,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>23</v>
@@ -5531,7 +5531,7 @@
         <v>24</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>11</v>
@@ -5539,10 +5539,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>23</v>
@@ -5551,7 +5551,7 @@
         <v>24</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>11</v>
@@ -5559,10 +5559,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>23</v>
@@ -5571,7 +5571,7 @@
         <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>11</v>
@@ -5579,10 +5579,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>23</v>
@@ -5591,7 +5591,7 @@
         <v>24</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>11</v>
@@ -5619,10 +5619,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>23</v>
@@ -5631,7 +5631,7 @@
         <v>24</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>11</v>
@@ -5639,10 +5639,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>23</v>
@@ -5651,7 +5651,7 @@
         <v>24</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>11</v>
@@ -5659,10 +5659,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>23</v>
@@ -5671,7 +5671,7 @@
         <v>24</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>11</v>
@@ -5679,10 +5679,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>23</v>
@@ -5691,7 +5691,7 @@
         <v>24</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>11</v>
@@ -5699,10 +5699,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>23</v>
@@ -5711,7 +5711,7 @@
         <v>24</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>11</v>
@@ -5719,10 +5719,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>23</v>
@@ -5731,7 +5731,7 @@
         <v>24</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>11</v>
@@ -5739,10 +5739,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>23</v>
@@ -5751,7 +5751,7 @@
         <v>24</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>11</v>
@@ -5759,10 +5759,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>23</v>
@@ -5771,7 +5771,7 @@
         <v>24</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>11</v>
@@ -5779,10 +5779,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>23</v>
@@ -5791,7 +5791,7 @@
         <v>24</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>11</v>
@@ -5819,10 +5819,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>23</v>
@@ -5831,7 +5831,7 @@
         <v>24</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>11</v>
@@ -5839,10 +5839,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>23</v>
@@ -5851,7 +5851,7 @@
         <v>24</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>11</v>
@@ -5859,10 +5859,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>23</v>
@@ -5871,7 +5871,7 @@
         <v>24</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>11</v>
@@ -5879,10 +5879,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>23</v>
@@ -5891,7 +5891,7 @@
         <v>24</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>11</v>
@@ -5919,19 +5919,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>11</v>
@@ -5939,19 +5939,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>11</v>
@@ -5959,19 +5959,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>11</v>
@@ -5979,19 +5979,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>11</v>
@@ -5999,19 +5999,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>11</v>
@@ -6019,19 +6019,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>11</v>
@@ -6039,19 +6039,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>11</v>
@@ -6059,19 +6059,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>11</v>
@@ -6079,19 +6079,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>11</v>
@@ -6099,19 +6099,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>11</v>
@@ -6119,19 +6119,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>11</v>
@@ -6139,19 +6139,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>11</v>
@@ -6159,19 +6159,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>11</v>
@@ -6179,19 +6179,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>11</v>
@@ -6199,19 +6199,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>11</v>
@@ -6219,19 +6219,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>11</v>
@@ -6239,19 +6239,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>11</v>
@@ -6259,19 +6259,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>11</v>
@@ -6279,19 +6279,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>11</v>
@@ -6299,19 +6299,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>11</v>
@@ -6319,19 +6319,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>11</v>
@@ -6339,19 +6339,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>11</v>
@@ -6359,19 +6359,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>11</v>
@@ -6379,19 +6379,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>11</v>
@@ -6419,19 +6419,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>11</v>
@@ -6439,19 +6439,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>11</v>
@@ -6459,19 +6459,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>11</v>
@@ -6479,19 +6479,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>11</v>
@@ -6499,19 +6499,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>11</v>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>11</v>
@@ -6539,19 +6539,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>11</v>
@@ -6559,19 +6559,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>11</v>
@@ -6579,19 +6579,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>11</v>
@@ -6599,19 +6599,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>11</v>
@@ -6619,19 +6619,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>11</v>
@@ -6639,19 +6639,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>11</v>
@@ -6659,19 +6659,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>11</v>
@@ -6679,19 +6679,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>11</v>
@@ -6699,19 +6699,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>11</v>
@@ -6719,19 +6719,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>11</v>
@@ -6739,19 +6739,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>11</v>
@@ -6759,19 +6759,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>11</v>
@@ -6779,19 +6779,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>11</v>
@@ -6799,19 +6799,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>11</v>
@@ -6819,19 +6819,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>11</v>
